--- a/prediction/PredictionDataNew.xlsx
+++ b/prediction/PredictionDataNew.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lital\Documents\Git\Stocker-server\prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDB4BAB-E840-499D-A7C1-8AA495FCA8C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3A0716-27ED-401E-A56D-358AD8A255EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A8F24BF3-A6C2-4C55-954D-46036DE50CF6}"/>
   </bookViews>
@@ -570,7 +570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93CA2513-363A-4947-9FBE-ADDCF0D66F5E}">
   <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A54" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A49" workbookViewId="0">
       <selection activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>

--- a/prediction/PredictionDataNew.xlsx
+++ b/prediction/PredictionDataNew.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lital\Documents\Git\Stocker-server\prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3A0716-27ED-401E-A56D-358AD8A255EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F73C37-E495-4640-BD03-0B04EB5EB59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A8F24BF3-A6C2-4C55-954D-46036DE50CF6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>usageOneMonthAgo</t>
   </si>
@@ -53,101 +53,45 @@
     <t>futureUsage(Y)</t>
   </si>
   <si>
-    <t>thisMonth</t>
-  </si>
-  <si>
-    <t>season</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>cofficients</t>
-  </si>
-  <si>
     <t>intercept:</t>
   </si>
   <si>
-    <t>10.749999995707881,</t>
+    <t>סטייה</t>
   </si>
   <si>
-    <t xml:space="preserve">  11.899999983589067,</t>
+    <t>coefficients</t>
   </si>
   <si>
-    <t xml:space="preserve">  12.499999920529438,</t>
+    <t>נק חיתוך</t>
   </si>
   <si>
-    <t xml:space="preserve">  9.499999872878686,</t>
+    <t>a1</t>
   </si>
   <si>
-    <t xml:space="preserve">  12.00000011173049,</t>
+    <t>a2</t>
   </si>
   <si>
-    <t xml:space="preserve">  10.099999956870791,</t>
+    <t>a3</t>
   </si>
   <si>
-    <t xml:space="preserve">  11.299999873639415,</t>
+    <t>a4</t>
   </si>
   <si>
-    <t xml:space="preserve">  13.250000107351283,</t>
+    <t>חיזוי המודל עם ערבוב</t>
   </si>
   <si>
-    <t xml:space="preserve">  14.80000016981537,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  11.050000106059692,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  9.299999826740006,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  13.449999968323999,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  9.849999875820162,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  11.950000009213133,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  10.899999955423679,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  9.199999817903857,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  12.250000070994549,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  14.350000138598569,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  13.35000020425681,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  10.649999926144659,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  13.30000008273198,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  10.250000166085004,</t>
+    <t>חיזוי המודל ללא ערבוב</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="171" formatCode="0.000000000"/>
+    <numFmt numFmtId="172" formatCode="0.0E+00"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +106,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -231,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -248,12 +199,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93CA2513-363A-4947-9FBE-ADDCF0D66F5E}">
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H79" sqref="H79"/>
+      <selection activeCell="F55" sqref="F55:G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -581,11 +540,13 @@
     <col min="3" max="3" width="17.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.8984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -598,17 +559,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>20</v>
       </c>
@@ -622,16 +577,10 @@
         <v>3</v>
       </c>
       <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="3">
         <v>12.95</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>22</v>
       </c>
@@ -645,16 +594,10 @@
         <v>5</v>
       </c>
       <c r="E3" s="3">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="3">
         <v>14.95</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>13</v>
       </c>
@@ -668,16 +611,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="3">
-        <v>3</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="3">
         <v>9.65</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>11</v>
       </c>
@@ -691,16 +628,10 @@
         <v>2</v>
       </c>
       <c r="E5" s="3">
-        <v>4</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="3">
         <v>11.2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>18</v>
       </c>
@@ -714,16 +645,10 @@
         <v>2</v>
       </c>
       <c r="E6" s="3">
-        <v>5</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="3">
         <v>11.3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>17</v>
       </c>
@@ -737,16 +662,10 @@
         <v>3</v>
       </c>
       <c r="E7" s="3">
-        <v>6</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="3">
         <v>10.65</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>24</v>
       </c>
@@ -760,16 +679,10 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
-        <v>7</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="3">
         <v>11.65</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>10</v>
       </c>
@@ -783,16 +696,10 @@
         <v>3</v>
       </c>
       <c r="E9" s="3">
-        <v>8</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>25</v>
       </c>
@@ -806,16 +713,10 @@
         <v>2</v>
       </c>
       <c r="E10" s="3">
-        <v>9</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="3">
         <v>12.45</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>18</v>
       </c>
@@ -829,16 +730,10 @@
         <v>3</v>
       </c>
       <c r="E11" s="3">
-        <v>10</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="6">
         <v>14.85</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>19</v>
       </c>
@@ -852,16 +747,10 @@
         <v>4</v>
       </c>
       <c r="E12" s="3">
-        <v>11</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="6">
         <v>14.45</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>25</v>
       </c>
@@ -875,16 +764,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="3">
-        <v>12</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="6">
         <v>12.55</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>23</v>
       </c>
@@ -898,16 +781,10 @@
         <v>3</v>
       </c>
       <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="6">
         <v>13.85</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>17</v>
       </c>
@@ -921,16 +798,10 @@
         <v>5</v>
       </c>
       <c r="E15" s="3">
-        <v>2</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="6">
         <v>12.1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -944,16 +815,10 @@
         <v>1</v>
       </c>
       <c r="E16" s="3">
-        <v>3</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="6">
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>25</v>
       </c>
@@ -967,16 +832,10 @@
         <v>0</v>
       </c>
       <c r="E17" s="3">
-        <v>4</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="6">
         <v>10.75</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>10</v>
       </c>
@@ -990,16 +849,10 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="6">
         <v>11.9</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1013,16 +866,10 @@
         <v>2</v>
       </c>
       <c r="E19" s="3">
-        <v>6</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="6">
         <v>12.5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1036,16 +883,10 @@
         <v>2</v>
       </c>
       <c r="E20" s="3">
-        <v>7</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="6">
         <v>9.5</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -1059,16 +900,10 @@
         <v>0</v>
       </c>
       <c r="E21" s="3">
-        <v>8</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>11</v>
       </c>
@@ -1082,16 +917,10 @@
         <v>1</v>
       </c>
       <c r="E22" s="3">
-        <v>9</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="6">
         <v>10.1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>18</v>
       </c>
@@ -1105,16 +934,10 @@
         <v>2</v>
       </c>
       <c r="E23" s="3">
-        <v>10</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="6">
         <v>11.3</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>25</v>
       </c>
@@ -1128,16 +951,10 @@
         <v>1</v>
       </c>
       <c r="E24" s="3">
-        <v>11</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="6">
         <v>13.25</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>30</v>
       </c>
@@ -1151,16 +968,10 @@
         <v>3</v>
       </c>
       <c r="E25" s="3">
-        <v>12</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="6">
         <v>14.8</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>11</v>
       </c>
@@ -1174,16 +985,10 @@
         <v>2</v>
       </c>
       <c r="E26" s="3">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" s="6">
         <v>11.05</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>14</v>
       </c>
@@ -1197,16 +1002,10 @@
         <v>1</v>
       </c>
       <c r="E27" s="3">
-        <v>2</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="6">
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>17</v>
       </c>
@@ -1220,16 +1019,10 @@
         <v>3</v>
       </c>
       <c r="E28" s="3">
-        <v>3</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28" s="6">
         <v>13.45</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>23</v>
       </c>
@@ -1243,16 +1036,10 @@
         <v>2</v>
       </c>
       <c r="E29" s="3">
-        <v>4</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="6">
         <v>9.85</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>15</v>
       </c>
@@ -1266,16 +1053,10 @@
         <v>3</v>
       </c>
       <c r="E30" s="3">
-        <v>5</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G30" s="6">
         <v>11.95</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>18</v>
       </c>
@@ -1289,16 +1070,10 @@
         <v>1</v>
       </c>
       <c r="E31" s="3">
-        <v>6</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" s="6">
         <v>10.9</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>11</v>
       </c>
@@ -1312,16 +1087,10 @@
         <v>1</v>
       </c>
       <c r="E32" s="3">
-        <v>7</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G32" s="6">
         <v>10.1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>23</v>
       </c>
@@ -1334,17 +1103,11 @@
       <c r="D33" s="4">
         <v>1</v>
       </c>
-      <c r="E33" s="4">
-        <v>8</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G33" s="6">
+      <c r="E33" s="3">
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>24</v>
       </c>
@@ -1358,16 +1121,10 @@
         <v>2</v>
       </c>
       <c r="E34" s="3">
-        <v>9</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="6">
         <v>12.25</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>21</v>
       </c>
@@ -1381,16 +1138,10 @@
         <v>3</v>
       </c>
       <c r="E35" s="3">
-        <v>10</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" s="6">
         <v>14.35</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>18</v>
       </c>
@@ -1404,16 +1155,10 @@
         <v>0</v>
       </c>
       <c r="E36" s="3">
-        <v>11</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="6">
         <v>13.35</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>28</v>
       </c>
@@ -1427,16 +1172,10 @@
         <v>2</v>
       </c>
       <c r="E37" s="3">
-        <v>12</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G37" s="6">
         <v>10.65</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>30</v>
       </c>
@@ -1450,16 +1189,10 @@
         <v>4</v>
       </c>
       <c r="E38" s="3">
-        <v>1</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G38" s="6">
         <v>13.3</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>15</v>
       </c>
@@ -1473,16 +1206,10 @@
         <v>0</v>
       </c>
       <c r="E39" s="3">
-        <v>2</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G39" s="6">
         <v>10.25</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>14</v>
       </c>
@@ -1496,16 +1223,10 @@
         <v>3</v>
       </c>
       <c r="E40" s="3">
-        <v>3</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G40" s="6">
         <v>12.7</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>20</v>
       </c>
@@ -1519,16 +1240,10 @@
         <v>3</v>
       </c>
       <c r="E41" s="3">
-        <v>1</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G41" s="6">
         <v>12.95</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>22</v>
       </c>
@@ -1542,16 +1257,10 @@
         <v>5</v>
       </c>
       <c r="E42" s="3">
-        <v>2</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G42" s="6">
         <v>14.95</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>13</v>
       </c>
@@ -1565,16 +1274,10 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G43" s="6">
         <v>9.65</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>11</v>
       </c>
@@ -1588,16 +1291,10 @@
         <v>2</v>
       </c>
       <c r="E44" s="3">
-        <v>4</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G44" s="6">
         <v>11.2</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>18</v>
       </c>
@@ -1611,16 +1308,10 @@
         <v>2</v>
       </c>
       <c r="E45" s="3">
-        <v>5</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45" s="6">
         <v>11.3</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>17</v>
       </c>
@@ -1634,16 +1325,10 @@
         <v>3</v>
       </c>
       <c r="E46" s="3">
-        <v>6</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G46" s="6">
         <v>10.65</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>24</v>
       </c>
@@ -1657,16 +1342,10 @@
         <v>4</v>
       </c>
       <c r="E47" s="3">
-        <v>7</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G47" s="6">
         <v>11.65</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>10</v>
       </c>
@@ -1680,16 +1359,10 @@
         <v>3</v>
       </c>
       <c r="E48" s="3">
-        <v>8</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G48" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>25</v>
       </c>
@@ -1703,16 +1376,10 @@
         <v>2</v>
       </c>
       <c r="E49" s="3">
-        <v>9</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G49" s="6">
         <v>12.45</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>18</v>
       </c>
@@ -1726,16 +1393,10 @@
         <v>3</v>
       </c>
       <c r="E50" s="3">
-        <v>10</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G50" s="6">
         <v>14.85</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>19</v>
       </c>
@@ -1749,16 +1410,10 @@
         <v>4</v>
       </c>
       <c r="E51" s="3">
-        <v>11</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G51" s="6">
         <v>14.45</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>25</v>
       </c>
@@ -1772,16 +1427,10 @@
         <v>1</v>
       </c>
       <c r="E52" s="3">
-        <v>12</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G52" s="6">
         <v>12.55</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>23</v>
       </c>
@@ -1795,16 +1444,10 @@
         <v>3</v>
       </c>
       <c r="E53" s="3">
-        <v>1</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G53" s="6">
         <v>13.85</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>17</v>
       </c>
@@ -1818,16 +1461,10 @@
         <v>5</v>
       </c>
       <c r="E54" s="3">
-        <v>2</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G54" s="6">
         <v>12.1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>15</v>
       </c>
@@ -1841,16 +1478,22 @@
         <v>1</v>
       </c>
       <c r="E55" s="3">
-        <v>3</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G55" s="6">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F55" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>25</v>
       </c>
@@ -1863,20 +1506,25 @@
       <c r="D56" s="3">
         <v>0</v>
       </c>
-      <c r="E56" s="3">
-        <v>4</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G56" s="5">
+      <c r="E56" s="5">
         <v>10.75</v>
       </c>
-      <c r="H56" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F56" s="7">
+        <v>10.7499999957078</v>
+      </c>
+      <c r="G56" s="10">
+        <f>E56-F56</f>
+        <v>4.2922003729017888E-9</v>
+      </c>
+      <c r="H56">
+        <v>9.6500001005914395</v>
+      </c>
+      <c r="I56">
+        <f>E56-H56</f>
+        <v>1.0999998994085605</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>10</v>
       </c>
@@ -1889,20 +1537,25 @@
       <c r="D57" s="3">
         <v>4</v>
       </c>
-      <c r="E57" s="3">
-        <v>5</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G57" s="5">
+      <c r="E57" s="5">
         <v>11.9</v>
       </c>
-      <c r="H57" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F57" s="7">
+        <v>11.899999983589</v>
+      </c>
+      <c r="G57" s="10">
+        <f t="shared" ref="G57:G79" si="0">E57-F57</f>
+        <v>1.6411000558491651E-8</v>
+      </c>
+      <c r="H57">
+        <v>12.4499999787076</v>
+      </c>
+      <c r="I57">
+        <f t="shared" ref="I57:I79" si="1">E57-H57</f>
+        <v>-0.54999997870759998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>18</v>
       </c>
@@ -1915,20 +1568,25 @@
       <c r="D58" s="3">
         <v>2</v>
       </c>
-      <c r="E58" s="3">
-        <v>6</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G58" s="5">
+      <c r="E58" s="5">
         <v>12.5</v>
       </c>
-      <c r="H58" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F58" s="7">
+        <v>12.499999920529399</v>
+      </c>
+      <c r="G58" s="10">
+        <f t="shared" si="0"/>
+        <v>7.9470600766740063E-8</v>
+      </c>
+      <c r="H58">
+        <v>10.649999866754801</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="1"/>
+        <v>1.8500001332451994</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>19</v>
       </c>
@@ -1941,20 +1599,25 @@
       <c r="D59" s="3">
         <v>2</v>
       </c>
-      <c r="E59" s="3">
-        <v>7</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G59" s="5">
+      <c r="E59" s="5">
         <v>9.5</v>
       </c>
-      <c r="H59" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F59" s="7">
+        <v>9.4999998728786803</v>
+      </c>
+      <c r="G59" s="10">
+        <f t="shared" si="0"/>
+        <v>1.271213196929466E-7</v>
+      </c>
+      <c r="H59">
+        <v>13.350000268854</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="1"/>
+        <v>-3.850000268854</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>18</v>
       </c>
@@ -1967,20 +1630,25 @@
       <c r="D60" s="3">
         <v>0</v>
       </c>
-      <c r="E60" s="3">
-        <v>8</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G60" s="5">
+      <c r="E60" s="5">
         <v>12</v>
       </c>
-      <c r="H60" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F60" s="7">
+        <v>12.000000111730399</v>
+      </c>
+      <c r="G60" s="10">
+        <f t="shared" si="0"/>
+        <v>-1.117303991549079E-7</v>
+      </c>
+      <c r="H60">
+        <v>14.949999914006201</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="1"/>
+        <v>-2.9499999140062005</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>11</v>
       </c>
@@ -1993,20 +1661,25 @@
       <c r="D61" s="3">
         <v>1</v>
       </c>
-      <c r="E61" s="3">
-        <v>9</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G61" s="5">
+      <c r="E61" s="5">
         <v>10.1</v>
       </c>
-      <c r="H61" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F61" s="7">
+        <v>10.0999999568707</v>
+      </c>
+      <c r="G61" s="10">
+        <f t="shared" si="0"/>
+        <v>4.3129299243105379E-8</v>
+      </c>
+      <c r="H61">
+        <v>14.3500000782157</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="1"/>
+        <v>-4.2500000782157006</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>18</v>
       </c>
@@ -2019,20 +1692,25 @@
       <c r="D62" s="3">
         <v>2</v>
       </c>
-      <c r="E62" s="3">
-        <v>10</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G62" s="5">
+      <c r="E62" s="5">
         <v>11.3</v>
       </c>
-      <c r="H62" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F62" s="7">
+        <v>11.299999873639401</v>
+      </c>
+      <c r="G62" s="10">
+        <f t="shared" si="0"/>
+        <v>1.2636060020554396E-7</v>
+      </c>
+      <c r="H62">
+        <v>14.800000090848499</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="1"/>
+        <v>-3.5000000908484985</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>25</v>
       </c>
@@ -2045,20 +1723,25 @@
       <c r="D63" s="3">
         <v>1</v>
       </c>
-      <c r="E63" s="3">
-        <v>11</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G63" s="5">
+      <c r="E63" s="5">
         <v>13.25</v>
       </c>
-      <c r="H63" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F63" s="7">
+        <v>13.2500001073512</v>
+      </c>
+      <c r="G63" s="10">
+        <f t="shared" si="0"/>
+        <v>-1.0735119992943964E-7</v>
+      </c>
+      <c r="H63">
+        <v>10.9000000280385</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="1"/>
+        <v>2.3499999719615001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>30</v>
       </c>
@@ -2071,20 +1754,25 @@
       <c r="D64" s="3">
         <v>3</v>
       </c>
-      <c r="E64" s="3">
-        <v>12</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G64" s="5">
+      <c r="E64" s="5">
         <v>14.8</v>
       </c>
-      <c r="H64" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F64" s="7">
+        <v>14.8000001698153</v>
+      </c>
+      <c r="G64" s="10">
+        <f t="shared" si="0"/>
+        <v>-1.6981529959991803E-7</v>
+      </c>
+      <c r="H64">
+        <v>10.1000000183613</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="1"/>
+        <v>4.699999981638701</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>11</v>
       </c>
@@ -2097,20 +1785,25 @@
       <c r="D65" s="3">
         <v>2</v>
       </c>
-      <c r="E65" s="3">
-        <v>1</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G65" s="5">
+      <c r="E65" s="5">
         <v>11.05</v>
       </c>
-      <c r="H65" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F65" s="7">
+        <v>11.050000106059599</v>
+      </c>
+      <c r="G65" s="10">
+        <f t="shared" si="0"/>
+        <v>-1.0605959843701385E-7</v>
+      </c>
+      <c r="H65">
+        <v>12.0999997995906</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="1"/>
+        <v>-1.0499997995905996</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>14</v>
       </c>
@@ -2123,20 +1816,25 @@
       <c r="D66" s="3">
         <v>1</v>
       </c>
-      <c r="E66" s="3">
-        <v>2</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G66" s="5">
+      <c r="E66" s="5">
         <v>9.3000000000000007</v>
       </c>
-      <c r="H66" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F66" s="7">
+        <v>9.2999998267400006</v>
+      </c>
+      <c r="G66" s="10">
+        <f t="shared" si="0"/>
+        <v>1.7326000012474196E-7</v>
+      </c>
+      <c r="H66">
+        <v>12.699999955444101</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="1"/>
+        <v>-3.3999999554441001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>17</v>
       </c>
@@ -2149,20 +1847,25 @@
       <c r="D67" s="3">
         <v>3</v>
       </c>
-      <c r="E67" s="3">
-        <v>3</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G67" s="5">
+      <c r="E67" s="5">
         <v>13.45</v>
       </c>
-      <c r="H67" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F67" s="7">
+        <v>13.449999968323899</v>
+      </c>
+      <c r="G67" s="10">
+        <f t="shared" si="0"/>
+        <v>3.1676099965238791E-8</v>
+      </c>
+      <c r="H67">
+        <v>13.299999950294</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="1"/>
+        <v>0.15000004970599967</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>23</v>
       </c>
@@ -2175,20 +1878,25 @@
       <c r="D68" s="3">
         <v>2</v>
       </c>
-      <c r="E68" s="3">
-        <v>4</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G68" s="5">
+      <c r="E68" s="5">
         <v>9.85</v>
       </c>
-      <c r="H68" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F68" s="7">
+        <v>9.8499998758201599</v>
+      </c>
+      <c r="G68" s="10">
+        <f t="shared" si="0"/>
+        <v>1.2417983974444269E-7</v>
+      </c>
+      <c r="H68">
+        <v>12.5500001211864</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="1"/>
+        <v>-2.7000001211864006</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>15</v>
       </c>
@@ -2201,20 +1909,25 @@
       <c r="D69" s="3">
         <v>3</v>
       </c>
-      <c r="E69" s="3">
-        <v>5</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G69" s="5">
+      <c r="E69" s="5">
         <v>11.95</v>
       </c>
-      <c r="H69" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F69" s="7">
+        <v>11.950000009213101</v>
+      </c>
+      <c r="G69" s="10">
+        <f t="shared" si="0"/>
+        <v>-9.21310139290199E-9</v>
+      </c>
+      <c r="H69">
+        <v>14.449999966843</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="1"/>
+        <v>-2.4999999668430011</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>18</v>
       </c>
@@ -2227,20 +1940,25 @@
       <c r="D70" s="3">
         <v>1</v>
       </c>
-      <c r="E70" s="3">
-        <v>6</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G70" s="5">
+      <c r="E70" s="5">
         <v>10.9</v>
       </c>
-      <c r="H70" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F70" s="7">
+        <v>10.899999955423599</v>
+      </c>
+      <c r="G70" s="10">
+        <f t="shared" si="0"/>
+        <v>4.4576401236895435E-8</v>
+      </c>
+      <c r="H70">
+        <v>11.299999939887799</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="1"/>
+        <v>-0.39999993988779892</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>11</v>
       </c>
@@ -2253,20 +1971,25 @@
       <c r="D71" s="3">
         <v>1</v>
       </c>
-      <c r="E71" s="3">
-        <v>7</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G71" s="5">
+      <c r="E71" s="5">
         <v>10.1</v>
       </c>
-      <c r="H71" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F71" s="7">
+        <v>10.0999999568707</v>
+      </c>
+      <c r="G71" s="10">
+        <f t="shared" si="0"/>
+        <v>4.3129299243105379E-8</v>
+      </c>
+      <c r="H71">
+        <v>13.449999981400801</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="1"/>
+        <v>-3.349999981400801</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>23</v>
       </c>
@@ -2279,20 +2002,25 @@
       <c r="D72" s="4">
         <v>1</v>
       </c>
-      <c r="E72" s="4">
-        <v>8</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G72" s="5">
+      <c r="E72" s="5">
         <v>9.1999999999999993</v>
       </c>
-      <c r="H72" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F72" s="7">
+        <v>9.1999998179038496</v>
+      </c>
+      <c r="G72" s="10">
+        <f t="shared" si="0"/>
+        <v>1.8209614971453902E-7</v>
+      </c>
+      <c r="H72">
+        <v>9.1999999117191198</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="1"/>
+        <v>8.8280879495528097E-8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>24</v>
       </c>
@@ -2305,20 +2033,25 @@
       <c r="D73" s="3">
         <v>2</v>
       </c>
-      <c r="E73" s="3">
-        <v>9</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G73" s="5">
+      <c r="E73" s="5">
         <v>12.25</v>
       </c>
-      <c r="H73" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F73" s="7">
+        <v>12.250000070994499</v>
+      </c>
+      <c r="G73" s="10">
+        <f t="shared" si="0"/>
+        <v>-7.09944991683642E-8</v>
+      </c>
+      <c r="H73">
+        <v>12.699999955444101</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="1"/>
+        <v>-0.44999995544410076</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>21</v>
       </c>
@@ -2331,20 +2064,25 @@
       <c r="D74" s="3">
         <v>3</v>
       </c>
-      <c r="E74" s="3">
-        <v>10</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G74" s="5">
+      <c r="E74" s="5">
         <v>14.35</v>
       </c>
-      <c r="H74" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F74" s="7">
+        <v>14.350000138598499</v>
+      </c>
+      <c r="G74" s="10">
+        <f t="shared" si="0"/>
+        <v>-1.3859849978814509E-7</v>
+      </c>
+      <c r="H74">
+        <v>11.199999958872001</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="1"/>
+        <v>3.1500000411279991</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>18</v>
       </c>
@@ -2357,20 +2095,25 @@
       <c r="D75" s="3">
         <v>0</v>
       </c>
-      <c r="E75" s="3">
-        <v>11</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G75" s="5">
+      <c r="E75" s="5">
         <v>13.35</v>
       </c>
-      <c r="H75" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F75" s="7">
+        <v>13.3500002042568</v>
+      </c>
+      <c r="G75" s="10">
+        <f t="shared" si="0"/>
+        <v>-2.0425679991831203E-7</v>
+      </c>
+      <c r="H75">
+        <v>10.6499999319942</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="1"/>
+        <v>2.7000000680057994</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>28</v>
       </c>
@@ -2383,20 +2126,25 @@
       <c r="D76" s="3">
         <v>2</v>
       </c>
-      <c r="E76" s="3">
-        <v>12</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G76" s="5">
+      <c r="E76" s="5">
         <v>10.65</v>
       </c>
-      <c r="H76" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F76" s="7">
+        <v>10.6499999261446</v>
+      </c>
+      <c r="G76" s="10">
+        <f t="shared" si="0"/>
+        <v>7.3855400017919237E-8</v>
+      </c>
+      <c r="H76">
+        <v>12.0999997995906</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="1"/>
+        <v>-1.4499997995906</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>30</v>
       </c>
@@ -2409,20 +2157,25 @@
       <c r="D77" s="3">
         <v>4</v>
       </c>
-      <c r="E77" s="3">
-        <v>1</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G77" s="5">
+      <c r="E77" s="5">
         <v>13.3</v>
       </c>
-      <c r="H77" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F77" s="7">
+        <v>13.3000000827319</v>
+      </c>
+      <c r="G77" s="10">
+        <f t="shared" si="0"/>
+        <v>-8.2731899553323274E-8</v>
+      </c>
+      <c r="H77">
+        <v>13.850000055985801</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="1"/>
+        <v>-0.55000005598579982</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>15</v>
       </c>
@@ -2435,20 +2188,25 @@
       <c r="D78" s="3">
         <v>0</v>
       </c>
-      <c r="E78" s="3">
-        <v>2</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G78" s="5">
+      <c r="E78" s="5">
         <v>10.25</v>
       </c>
-      <c r="H78" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F78" s="7">
+        <v>10.250000166085</v>
+      </c>
+      <c r="G78" s="10">
+        <f t="shared" si="0"/>
+        <v>-1.6608499997516901E-7</v>
+      </c>
+      <c r="H78">
+        <v>13.250000149847899</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="1"/>
+        <v>-3.0000001498478994</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>14</v>
       </c>
@@ -2461,55 +2219,125 @@
       <c r="D79" s="3">
         <v>3</v>
       </c>
-      <c r="E79" s="3">
+      <c r="E79" s="5">
+        <v>12.7</v>
+      </c>
+      <c r="F79" s="7">
+        <v>12.69999994508</v>
+      </c>
+      <c r="G79" s="10">
+        <f t="shared" si="0"/>
+        <v>5.4919999215030657E-8</v>
+      </c>
+      <c r="H79">
+        <v>11.299999939887799</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="1"/>
+        <v>1.4000000601122</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G81" s="10">
+        <f>MIN(G56:G79)</f>
+        <v>-2.0425679991831203E-7</v>
+      </c>
+      <c r="I81" s="10">
+        <f>MIN(I56:I79)</f>
+        <v>-4.2500000782157006</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" t="s">
+        <v>7</v>
+      </c>
+      <c r="G82" s="10">
+        <f>MAX(G56:G79)</f>
+        <v>1.8209614971453902E-7</v>
+      </c>
+      <c r="I82" s="10">
+        <f>MAX(I56:I79)</f>
+        <v>4.699999981638701</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="8">
+        <v>2.0000000907678799</v>
+      </c>
+      <c r="C83" s="8">
+        <v>2</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="8">
+        <v>1.0000003042419801</v>
+      </c>
+      <c r="C84" s="8">
+        <v>1</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="8">
+        <v>5.0000002484084796</v>
+      </c>
+      <c r="C85" s="8">
+        <v>5</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="8">
+        <v>2.9999998953206601</v>
+      </c>
+      <c r="C86" s="8">
         <v>3</v>
       </c>
-      <c r="F79" s="3" t="s">
+      <c r="D86" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="D87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="C88" s="8">
+        <v>7</v>
+      </c>
+      <c r="D88" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G79" s="5">
-        <v>12.7</v>
-      </c>
-      <c r="H79" s="7">
-        <v>12.69999994508</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>2.0000000907678799</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>1.0000003042419801</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>5.0000002484084796</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>2.9999998953206601</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88">
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="8">
         <v>6.9999997522080699</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/prediction/PredictionDataNew.xlsx
+++ b/prediction/PredictionDataNew.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lital\Documents\Git\Stocker-server\prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F73C37-E495-4640-BD03-0B04EB5EB59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB2322B-E049-4091-AF39-A25787F0F412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A8F24BF3-A6C2-4C55-954D-46036DE50CF6}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -88,8 +89,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="171" formatCode="0.000000000"/>
-    <numFmt numFmtId="172" formatCode="0.0E+00"/>
+    <numFmt numFmtId="164" formatCode="0.000000000"/>
+    <numFmt numFmtId="165" formatCode="0.0E+00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -182,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -202,17 +203,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2308,7 +2308,7 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="11">
+      <c r="A87">
         <v>0.5</v>
       </c>
       <c r="D87" t="s">
@@ -2316,7 +2316,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="11">
+      <c r="A88">
         <v>0.5</v>
       </c>
       <c r="C88" s="8">

--- a/prediction/PredictionDataNew.xlsx
+++ b/prediction/PredictionDataNew.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lital\Documents\Git\Stocker-server\prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB2322B-E049-4091-AF39-A25787F0F412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E202FC3-EE67-436A-B87C-90E251440725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A8F24BF3-A6C2-4C55-954D-46036DE50CF6}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -529,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93CA2513-363A-4947-9FBE-ADDCF0D66F5E}">
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55:G55"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
